--- a/TestData/BrandData/PallaviSwadi_TestData.xlsx
+++ b/TestData/BrandData/PallaviSwadi_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Desktop/GoCodex work/Pallavi_Swadi_Automation/ERP_PallaviSwadi/src/test/resource/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Desktop/umesh Workspace/Automation_Framework/EPR_PallaviSwadi/TestData/BrandData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D97EF-2979-5249-8618-AD8788031CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B0158-5F43-194D-85E6-96693F666944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="21920" xr2:uid="{7705F03F-5A0E-7343-9ED3-612292170E3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{7705F03F-5A0E-7343-9ED3-612292170E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBrand" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Pallavi Swadi</t>
-  </si>
-  <si>
-    <t>PallaviSwadiLogo.webp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BrandName</t>
   </si>
   <si>
-    <t>LogoFile</t>
-  </si>
-  <si>
-    <t>Test Brand 01</t>
+    <t>Test Brand</t>
   </si>
 </sst>
 </file>
@@ -422,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36394B07-674C-CC47-BA93-16CB029F9266}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,27 +425,13 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
